--- a/data/trans_orig/P1404-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1404-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>3598</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>924</v>
+        <v>932</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9671</v>
+        <v>9133</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.007281775617029904</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001871164260390986</v>
+        <v>0.001885445227252258</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01957473728472333</v>
+        <v>0.01848508455586158</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6463</v>
+        <v>6212</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003941516457747335</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01382550018189355</v>
+        <v>0.01328799998236967</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -786,19 +786,19 @@
         <v>5440</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2068</v>
+        <v>1898</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10996</v>
+        <v>11051</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.005657803992366888</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00215099061290448</v>
+        <v>0.001974394493509756</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01143523781287653</v>
+        <v>0.0114927880250037</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>490466</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>484393</v>
+        <v>484931</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>493140</v>
+        <v>493132</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9927182243829701</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9804252627152765</v>
+        <v>0.9815149154441392</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.998128835739609</v>
+        <v>0.9981145547727478</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>487</v>
@@ -836,7 +836,7 @@
         <v>465646</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>461026</v>
+        <v>461277</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>467489</v>
@@ -845,7 +845,7 @@
         <v>0.9960584835422527</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9861744998181063</v>
+        <v>0.9867120000176297</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -857,19 +857,19 @@
         <v>956113</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>950557</v>
+        <v>950502</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>959485</v>
+        <v>959655</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9943421960076331</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9885647621871235</v>
+        <v>0.9885072119749964</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9978490093870955</v>
+        <v>0.9980256055064902</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>4811</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1859</v>
+        <v>1864</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10551</v>
+        <v>10554</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.006541166376510072</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002527471617226879</v>
+        <v>0.002534114737418532</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01434500240052038</v>
+        <v>0.01434905973639796</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -982,19 +982,19 @@
         <v>10844</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5767</v>
+        <v>5103</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>20615</v>
+        <v>19744</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01733693605031641</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.009220218600407155</v>
+        <v>0.008158369577193767</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0329585559067558</v>
+        <v>0.03156621565505661</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>15</v>
@@ -1003,19 +1003,19 @@
         <v>15655</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9205</v>
+        <v>8895</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>26467</v>
+        <v>26065</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01150279340299047</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.00676378514969138</v>
+        <v>0.006535870550385624</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0194469813246749</v>
+        <v>0.01915180638228316</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>730678</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>724938</v>
+        <v>724935</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>733630</v>
+        <v>733625</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.99345883362349</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9856549975994796</v>
+        <v>0.9856509402636021</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9974725283827732</v>
+        <v>0.9974658852625815</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>581</v>
@@ -1053,19 +1053,19 @@
         <v>614650</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>604879</v>
+        <v>605750</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>619727</v>
+        <v>620391</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9826630639496836</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9670414440932439</v>
+        <v>0.968433784344944</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9907797813995929</v>
+        <v>0.9918416304228063</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1279</v>
@@ -1074,19 +1074,19 @@
         <v>1345327</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1334515</v>
+        <v>1334917</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1351777</v>
+        <v>1352087</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9884972065970096</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9805530186753252</v>
+        <v>0.9808481936177168</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9932362148503087</v>
+        <v>0.9934641294496144</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>27858</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18533</v>
+        <v>19312</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>39731</v>
+        <v>40823</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04361887356738752</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02901882501716572</v>
+        <v>0.03023739890779361</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06220920537894166</v>
+        <v>0.06391877777534824</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>23</v>
@@ -1199,19 +1199,19 @@
         <v>25174</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16710</v>
+        <v>16362</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>37112</v>
+        <v>36529</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0364974620101243</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02422707294571495</v>
+        <v>0.02372241265170453</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05380548231487393</v>
+        <v>0.05295989501346238</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>50</v>
@@ -1220,19 +1220,19 @@
         <v>53032</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>39581</v>
+        <v>39761</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>68938</v>
+        <v>68544</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03992126069930416</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0297959163793411</v>
+        <v>0.02993126346392573</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0518947748049083</v>
+        <v>0.05159813275058992</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>610810</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>598937</v>
+        <v>597845</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>620135</v>
+        <v>619356</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9563811264326125</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9377907946210583</v>
+        <v>0.9360812222246516</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9709811749828342</v>
+        <v>0.9697626010922065</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>635</v>
@@ -1270,19 +1270,19 @@
         <v>664570</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>652632</v>
+        <v>653215</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>673034</v>
+        <v>673382</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9635025379898757</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9461945176851261</v>
+        <v>0.9470401049865377</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9757729270542851</v>
+        <v>0.9762775873482955</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1221</v>
@@ -1291,19 +1291,19 @@
         <v>1275380</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1259474</v>
+        <v>1259868</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1288831</v>
+        <v>1288651</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9600787393006959</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9481052251950917</v>
+        <v>0.94840186724941</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9702040836206589</v>
+        <v>0.970068736536074</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>53303</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>41108</v>
+        <v>40427</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>69986</v>
+        <v>68601</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1026743872939741</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07918455562177106</v>
+        <v>0.07787230859650403</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1348101998673171</v>
+        <v>0.1321413199501391</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>41</v>
@@ -1416,19 +1416,19 @@
         <v>42381</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>31167</v>
+        <v>31125</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>55891</v>
+        <v>55576</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.082191171645942</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06044222691680237</v>
+        <v>0.06036147812935882</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1083919923518899</v>
+        <v>0.1077810004691206</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>93</v>
@@ -1437,19 +1437,19 @@
         <v>95684</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>78673</v>
+        <v>78108</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>115300</v>
+        <v>115294</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0924674699960038</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07602845725735669</v>
+        <v>0.07548251158722623</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1114233995667581</v>
+        <v>0.1114176446927628</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>465844</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>449161</v>
+        <v>450546</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>478039</v>
+        <v>478720</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8973256127060258</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8651898001326827</v>
+        <v>0.867858680049861</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9208154443782288</v>
+        <v>0.922127691403496</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>461</v>
@@ -1487,19 +1487,19 @@
         <v>473261</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>459751</v>
+        <v>460066</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>484475</v>
+        <v>484517</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.917808828354058</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8916080076481099</v>
+        <v>0.8922189995308792</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9395577730831975</v>
+        <v>0.9396385218706411</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>893</v>
@@ -1508,19 +1508,19 @@
         <v>939105</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>919489</v>
+        <v>919495</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>956116</v>
+        <v>956681</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9075325300039961</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.888576600433242</v>
+        <v>0.8885823553072372</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9239715427426434</v>
+        <v>0.9245174884127738</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>68354</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>55875</v>
+        <v>54205</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>83875</v>
+        <v>83494</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1767568196321831</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1444868759848875</v>
+        <v>0.1401694379372625</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2168928227665995</v>
+        <v>0.2159088684359096</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>83</v>
@@ -1633,19 +1633,19 @@
         <v>85635</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>70738</v>
+        <v>70005</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>103093</v>
+        <v>102567</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2119754426501635</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1750995365276657</v>
+        <v>0.1732845646230159</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2551905248929761</v>
+        <v>0.2538871060677669</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>154</v>
@@ -1654,19 +1654,19 @@
         <v>153989</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>133147</v>
+        <v>131064</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>176107</v>
+        <v>175772</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1947508775805185</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1683923789336974</v>
+        <v>0.1657578697839229</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2227239827798482</v>
+        <v>0.2222999082277384</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>318356</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>302835</v>
+        <v>303216</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>330835</v>
+        <v>332505</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8232431803678169</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7831071772334002</v>
+        <v>0.7840911315640903</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.855513124015112</v>
+        <v>0.8598305620627374</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>313</v>
@@ -1704,19 +1704,19 @@
         <v>318351</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>300893</v>
+        <v>301419</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>333248</v>
+        <v>333981</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7880245573498366</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7448094751070241</v>
+        <v>0.7461128939322331</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8249004634723346</v>
+        <v>0.8267154353769841</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>634</v>
@@ -1725,19 +1725,19 @@
         <v>636707</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>614589</v>
+        <v>614924</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>657549</v>
+        <v>659632</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8052491224194815</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7772760172201516</v>
+        <v>0.7777000917722614</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8316076210663026</v>
+        <v>0.8342421302160768</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>57406</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>45441</v>
+        <v>45042</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>71166</v>
+        <v>70694</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.196204585743925</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1553089035088052</v>
+        <v>0.1539457949569251</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2432318856769622</v>
+        <v>0.2416188168808462</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>103</v>
@@ -1850,19 +1850,19 @@
         <v>96269</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>79831</v>
+        <v>80959</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>112132</v>
+        <v>113566</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2807207544205099</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2327870175614482</v>
+        <v>0.2360781236198984</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3269786540589289</v>
+        <v>0.3311588907826479</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>165</v>
@@ -1871,19 +1871,19 @@
         <v>153675</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>132469</v>
+        <v>135074</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>173968</v>
+        <v>173504</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2418107107424318</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.208442955311633</v>
+        <v>0.2125419469532847</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2737428186717286</v>
+        <v>0.2730122155295407</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>235177</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>221417</v>
+        <v>221889</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>247142</v>
+        <v>247541</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.803795414256075</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7567681143230378</v>
+        <v>0.7583811831191538</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8446910964911947</v>
+        <v>0.8460542050430749</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>268</v>
@@ -1921,19 +1921,19 @@
         <v>246665</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>230802</v>
+        <v>229368</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>263103</v>
+        <v>261975</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7192792455794901</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6730213459410711</v>
+        <v>0.668841109217352</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7672129824385517</v>
+        <v>0.7639218763801013</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>509</v>
@@ -1942,19 +1942,19 @@
         <v>481842</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>461549</v>
+        <v>462013</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>503048</v>
+        <v>500443</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7581892892575682</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7262571813282716</v>
+        <v>0.7269877844704593</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7915570446883671</v>
+        <v>0.7874580530467153</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>44382</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>33273</v>
+        <v>32928</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>57060</v>
+        <v>56705</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.211461627935191</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1585299592501179</v>
+        <v>0.1568857115767887</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2718640860612478</v>
+        <v>0.2701720504531471</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>73</v>
@@ -2067,19 +2067,19 @@
         <v>86036</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>70145</v>
+        <v>70465</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>103591</v>
+        <v>105180</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2576625951669607</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2100717975101589</v>
+        <v>0.2110316746042954</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3102370172413516</v>
+        <v>0.3149961686502586</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>119</v>
@@ -2088,19 +2088,19 @@
         <v>130418</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>109766</v>
+        <v>112496</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>153624</v>
+        <v>152966</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2398307481246101</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2018538327754999</v>
+        <v>0.2068742656569229</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2825056384128319</v>
+        <v>0.2812961924707661</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>165501</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>152823</v>
+        <v>153178</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>176610</v>
+        <v>176955</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7885383720648089</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7281359139387522</v>
+        <v>0.7298279495468531</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8414700407498821</v>
+        <v>0.8431142884232113</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>217</v>
@@ -2138,19 +2138,19 @@
         <v>247872</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>230317</v>
+        <v>228728</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>263763</v>
+        <v>263443</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7423374048330393</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6897629827586483</v>
+        <v>0.6850038313497414</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7899282024898411</v>
+        <v>0.7889683253957046</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>391</v>
@@ -2159,19 +2159,19 @@
         <v>413373</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>390167</v>
+        <v>390825</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>434025</v>
+        <v>431295</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7601692518753899</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7174943615871682</v>
+        <v>0.718703807529234</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7981461672245002</v>
+        <v>0.7931257343430771</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>259712</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>231329</v>
+        <v>230412</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>290698</v>
+        <v>290374</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07926391656377424</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07060155006710656</v>
+        <v>0.0703215665348931</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08872081548127093</v>
+        <v>0.08862195580850631</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>335</v>
@@ -2284,19 +2284,19 @@
         <v>348181</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>318811</v>
+        <v>312999</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>387057</v>
+        <v>388214</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1030366913449996</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09434520588601045</v>
+        <v>0.09262512494237973</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1145409934477128</v>
+        <v>0.1148835484861753</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>602</v>
@@ -2305,19 +2305,19 @@
         <v>607893</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>561667</v>
+        <v>558746</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>657803</v>
+        <v>653089</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09133363217087917</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08438834873613438</v>
+        <v>0.0839494883795797</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09883244104123255</v>
+        <v>0.09812422392078991</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>3016831</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2985845</v>
+        <v>2986169</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3045214</v>
+        <v>3046131</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9207360834362258</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9112791845187294</v>
+        <v>0.9113780441914937</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9293984499328934</v>
+        <v>0.9296784334651069</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2962</v>
@@ -2355,19 +2355,19 @@
         <v>3031016</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2992140</v>
+        <v>2990983</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3060386</v>
+        <v>3066198</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8969633086550004</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8854590065522873</v>
+        <v>0.8851164515138248</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9056547941139895</v>
+        <v>0.9073748750576203</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5909</v>
@@ -2376,19 +2376,19 @@
         <v>6047848</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5997938</v>
+        <v>6002652</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6094074</v>
+        <v>6096995</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9086663678291208</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9011675589587674</v>
+        <v>0.9018757760792101</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9156116512638657</v>
+        <v>0.9160505116204203</v>
       </c>
     </row>
     <row r="27">
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5866</v>
+        <v>6589</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.004495551378574186</v>
@@ -2748,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01363417088788395</v>
+        <v>0.01531476743867189</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6085</v>
+        <v>6815</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002186988661279713</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.006880400591694025</v>
+        <v>0.007706266973362924</v>
       </c>
     </row>
     <row r="5">
@@ -2799,7 +2799,7 @@
         <v>428296</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>424364</v>
+        <v>423641</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>430230</v>
@@ -2808,7 +2808,7 @@
         <v>0.9955044486214258</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.986365829112116</v>
+        <v>0.9846852325613293</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -2820,7 +2820,7 @@
         <v>882442</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>878291</v>
+        <v>877561</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>884376</v>
@@ -2829,7 +2829,7 @@
         <v>0.9978130113387202</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9931195994083073</v>
+        <v>0.992293733026637</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -2924,19 +2924,19 @@
         <v>15781</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8589</v>
+        <v>9464</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26202</v>
+        <v>26122</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02296842288946302</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01250016732898476</v>
+        <v>0.01377350800449713</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03813511253285413</v>
+        <v>0.03801790822276961</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -2945,19 +2945,19 @@
         <v>7948</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3608</v>
+        <v>3206</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16679</v>
+        <v>16615</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0130237938178548</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005911828328257774</v>
+        <v>0.005253346801521138</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.027330659326462</v>
+        <v>0.02722567843318354</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>21</v>
@@ -2966,19 +2966,19 @@
         <v>23729</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15339</v>
+        <v>15477</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>36505</v>
+        <v>36889</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0182905803619714</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01182325274123579</v>
+        <v>0.01193009067114757</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.028138296243113</v>
+        <v>0.02843401341703064</v>
       </c>
     </row>
     <row r="8">
@@ -2995,19 +2995,19 @@
         <v>671306</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>660885</v>
+        <v>660965</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>678498</v>
+        <v>677623</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.977031577110537</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9618648874671457</v>
+        <v>0.9619820917772297</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9874998326710152</v>
+        <v>0.9862264919955028</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>564</v>
@@ -3016,19 +3016,19 @@
         <v>602307</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>593576</v>
+        <v>593640</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>606647</v>
+        <v>607049</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9869762061821452</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9726693406735381</v>
+        <v>0.9727743215668165</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9940881716717422</v>
+        <v>0.9947466531984789</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1217</v>
@@ -3037,19 +3037,19 @@
         <v>1273613</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1260837</v>
+        <v>1260453</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1282003</v>
+        <v>1281865</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9817094196380286</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.971861703756887</v>
+        <v>0.9715659865829694</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9881767472587639</v>
+        <v>0.9880699093288525</v>
       </c>
     </row>
     <row r="9">
@@ -3141,19 +3141,19 @@
         <v>39460</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>27818</v>
+        <v>28517</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>52302</v>
+        <v>54491</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05787137051124383</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04079723543314025</v>
+        <v>0.0418214830610945</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07670469977130241</v>
+        <v>0.07991439061782848</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -3162,19 +3162,19 @@
         <v>27821</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18602</v>
+        <v>18659</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>39770</v>
+        <v>40621</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03920864073449069</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02621526003706058</v>
+        <v>0.02629597064045684</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.056047134920369</v>
+        <v>0.05724691888656801</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>65</v>
@@ -3183,19 +3183,19 @@
         <v>67282</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>52077</v>
+        <v>53187</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>84767</v>
+        <v>85326</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04835416390213796</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03742696277340381</v>
+        <v>0.03822455951787341</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06092031263428878</v>
+        <v>0.06132212227637393</v>
       </c>
     </row>
     <row r="11">
@@ -3212,19 +3212,19 @@
         <v>642403</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>629561</v>
+        <v>627372</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>654045</v>
+        <v>653346</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9421286294887562</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9232953002286975</v>
+        <v>0.9200856093821723</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9592027645668597</v>
+        <v>0.9581785169389055</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>639</v>
@@ -3233,19 +3233,19 @@
         <v>681753</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>669804</v>
+        <v>668953</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>690972</v>
+        <v>690915</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9607913592655093</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9439528650796303</v>
+        <v>0.9427530811134318</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9737847399629392</v>
+        <v>0.9737040293595431</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1252</v>
@@ -3254,19 +3254,19 @@
         <v>1324155</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1306670</v>
+        <v>1306111</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1339360</v>
+        <v>1338250</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.951645836097862</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9390796873657111</v>
+        <v>0.9386778777236257</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9625730372265963</v>
+        <v>0.9617754404821265</v>
       </c>
     </row>
     <row r="12">
@@ -3358,19 +3358,19 @@
         <v>56160</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>42084</v>
+        <v>42732</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>71106</v>
+        <v>74567</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09158405952816094</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06862911330536423</v>
+        <v>0.06968657940357671</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1159576025796644</v>
+        <v>0.1216014905701457</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>66</v>
@@ -3379,19 +3379,19 @@
         <v>76240</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>59958</v>
+        <v>58639</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>95652</v>
+        <v>95403</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1241166076937116</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09761021783920448</v>
+        <v>0.09546223429375786</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1557187564504103</v>
+        <v>0.1553125506374075</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>117</v>
@@ -3400,19 +3400,19 @@
         <v>132400</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>110892</v>
+        <v>108374</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>156978</v>
+        <v>154797</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1078643226393693</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09034160220319779</v>
+        <v>0.08829015321925658</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1278876135572428</v>
+        <v>0.1261107287352353</v>
       </c>
     </row>
     <row r="14">
@@ -3429,19 +3429,19 @@
         <v>557048</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>542102</v>
+        <v>538641</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>571124</v>
+        <v>570476</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.908415940471839</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8840423974203356</v>
+        <v>0.8783985094298544</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9313708866946361</v>
+        <v>0.9303134205964234</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>472</v>
@@ -3450,19 +3450,19 @@
         <v>538024</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>518612</v>
+        <v>518861</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>554306</v>
+        <v>555625</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8758833923062884</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8442812435495896</v>
+        <v>0.844687449362593</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9023897821607955</v>
+        <v>0.9045377657062422</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>968</v>
@@ -3471,19 +3471,19 @@
         <v>1095072</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1070494</v>
+        <v>1072675</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1116580</v>
+        <v>1119098</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8921356773606307</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8721123864427571</v>
+        <v>0.8738892712647646</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9096583977968021</v>
+        <v>0.9117098467807433</v>
       </c>
     </row>
     <row r="15">
@@ -3575,19 +3575,19 @@
         <v>83233</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>67471</v>
+        <v>66285</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>102929</v>
+        <v>100432</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1938232950764435</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1571188794584916</v>
+        <v>0.1543554907775089</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2396882926775412</v>
+        <v>0.2338723818347218</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>106</v>
@@ -3596,19 +3596,19 @@
         <v>115465</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>96307</v>
+        <v>96432</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>133466</v>
+        <v>133424</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2578503885547818</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2150671551330319</v>
+        <v>0.215345891457626</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2980475184171381</v>
+        <v>0.2979550434726668</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>180</v>
@@ -3617,19 +3617,19 @@
         <v>198699</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>173031</v>
+        <v>175289</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>226468</v>
+        <v>227654</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.226507266116774</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1972474191854931</v>
+        <v>0.199821518120841</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.258162867343403</v>
+        <v>0.2595152110545217</v>
       </c>
     </row>
     <row r="17">
@@ -3646,19 +3646,19 @@
         <v>346196</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>326500</v>
+        <v>328997</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>361958</v>
+        <v>363144</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8061767049235565</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7603117073224588</v>
+        <v>0.7661276181652783</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8428811205415081</v>
+        <v>0.8456445092224912</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>300</v>
@@ -3667,19 +3667,19 @@
         <v>332335</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>314334</v>
+        <v>314376</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>351493</v>
+        <v>351368</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7421496114452183</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7019524815828619</v>
+        <v>0.702044956527333</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7849328448669681</v>
+        <v>0.7846541085423738</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>619</v>
@@ -3688,19 +3688,19 @@
         <v>678530</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>650761</v>
+        <v>649575</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>704198</v>
+        <v>701940</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.773492733883226</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7418371326565969</v>
+        <v>0.7404847889454783</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8027525808145066</v>
+        <v>0.8001784818791592</v>
       </c>
     </row>
     <row r="18">
@@ -3792,19 +3792,19 @@
         <v>112434</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>96239</v>
+        <v>95420</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>131362</v>
+        <v>131733</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3629416601496993</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3106613031813813</v>
+        <v>0.3080196831333616</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.424040398880404</v>
+        <v>0.4252392874751906</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>120</v>
@@ -3813,19 +3813,19 @@
         <v>124269</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>105294</v>
+        <v>105399</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>143173</v>
+        <v>142913</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3510465120695166</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2974439059600198</v>
+        <v>0.2977407367945473</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4044489568018724</v>
+        <v>0.4037147919443661</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>221</v>
@@ -3834,19 +3834,19 @@
         <v>236703</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>210553</v>
+        <v>210061</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>262810</v>
+        <v>262523</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3565979604360696</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3172024481923219</v>
+        <v>0.3164609024979332</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3959274713369451</v>
+        <v>0.395496109994299</v>
       </c>
     </row>
     <row r="20">
@@ -3863,19 +3863,19 @@
         <v>197352</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>178424</v>
+        <v>178053</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>213547</v>
+        <v>214366</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6370583398503007</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5759596011195961</v>
+        <v>0.5747607125248094</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6893386968186187</v>
+        <v>0.6919803168666384</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>224</v>
@@ -3884,19 +3884,19 @@
         <v>229727</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>210823</v>
+        <v>211083</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>248702</v>
+        <v>248597</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6489534879304834</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5955510431981276</v>
+        <v>0.5962852080556338</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7025560940399801</v>
+        <v>0.7022592632054527</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>405</v>
@@ -3905,19 +3905,19 @@
         <v>427079</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>400972</v>
+        <v>401259</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>453229</v>
+        <v>453721</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6434020395639304</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6040725286630548</v>
+        <v>0.6045038900057007</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.682797551807678</v>
+        <v>0.6835390975020667</v>
       </c>
     </row>
     <row r="21">
@@ -4009,19 +4009,19 @@
         <v>81604</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>66339</v>
+        <v>66511</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>99022</v>
+        <v>98782</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3266119279598004</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2655160191978593</v>
+        <v>0.2662017307493924</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3963257568874577</v>
+        <v>0.3953643968820693</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>124</v>
@@ -4030,19 +4030,19 @@
         <v>137162</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>119651</v>
+        <v>118643</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>157600</v>
+        <v>156449</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3526198061200542</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3076034863685322</v>
+        <v>0.3050104430913904</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.405162575453379</v>
+        <v>0.4022048279608343</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>196</v>
@@ -4051,19 +4051,19 @@
         <v>218766</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>192256</v>
+        <v>194771</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>245184</v>
+        <v>246045</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3424479418222338</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3009495071488428</v>
+        <v>0.3048877498072652</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3838020616121199</v>
+        <v>0.3851491363395221</v>
       </c>
     </row>
     <row r="23">
@@ -4080,19 +4080,19 @@
         <v>168247</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>150829</v>
+        <v>151069</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>183512</v>
+        <v>183340</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6733880720401997</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6036742431125429</v>
+        <v>0.6046356031179307</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7344839808021409</v>
+        <v>0.7337982692506078</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>226</v>
@@ -4101,19 +4101,19 @@
         <v>251817</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>231379</v>
+        <v>232530</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>269328</v>
+        <v>270336</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6473801938799458</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5948374245466209</v>
+        <v>0.5977951720391655</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6923965136314677</v>
+        <v>0.6949895569086095</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>376</v>
@@ -4122,19 +4122,19 @@
         <v>420064</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>393646</v>
+        <v>392785</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>446574</v>
+        <v>444059</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6575520581777662</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6161979383878801</v>
+        <v>0.6148508636604778</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6990504928511572</v>
+        <v>0.6951122501927347</v>
       </c>
     </row>
     <row r="24">
@@ -4226,19 +4226,19 @@
         <v>388674</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>350128</v>
+        <v>345912</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>426159</v>
+        <v>428364</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.113469095839011</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1022162136139512</v>
+        <v>0.1009853672908541</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1244125020809493</v>
+        <v>0.1250561437335867</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>452</v>
@@ -4247,19 +4247,19 @@
         <v>490840</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>448505</v>
+        <v>447926</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>533924</v>
+        <v>534933</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1380664750746221</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1261581695710918</v>
+        <v>0.1259953971791458</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1501855654183326</v>
+        <v>0.150469353745182</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>802</v>
@@ -4268,19 +4268,19 @@
         <v>879514</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>823921</v>
+        <v>822922</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>936670</v>
+        <v>939084</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1259963495977691</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1180323804693487</v>
+        <v>0.1178892608414724</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1341844448591491</v>
+        <v>0.1345302423381009</v>
       </c>
     </row>
     <row r="26">
@@ -4297,19 +4297,19 @@
         <v>3036696</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2999211</v>
+        <v>2997006</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3075242</v>
+        <v>3079458</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.886530904160989</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8755874979190506</v>
+        <v>0.8749438562664131</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8977837863860487</v>
+        <v>0.8990146327091459</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2844</v>
@@ -4318,19 +4318,19 @@
         <v>3064258</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3021174</v>
+        <v>3020165</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3106593</v>
+        <v>3107172</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.861933524925378</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8498144345816672</v>
+        <v>0.8495306462548177</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.873841830428908</v>
+        <v>0.8740046028208542</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5702</v>
@@ -4339,19 +4339,19 @@
         <v>6100955</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6043799</v>
+        <v>6041385</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6156548</v>
+        <v>6157547</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8740036504022309</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.865815555140851</v>
+        <v>0.8654697576618992</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8819676195306514</v>
+        <v>0.8821107391585277</v>
       </c>
     </row>
     <row r="27">
@@ -4689,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5892</v>
+        <v>5279</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002519392073739366</v>
@@ -4698,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01404736795249284</v>
+        <v>0.01258450655195099</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4901</v>
+        <v>3608</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002249149397127391</v>
@@ -4719,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01238478028770535</v>
+        <v>0.009117710354834661</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -4731,7 +4731,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8420</v>
+        <v>6236</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002388200305292354</v>
@@ -4740,7 +4740,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01032801658541211</v>
+        <v>0.007649953364373728</v>
       </c>
     </row>
     <row r="5">
@@ -4757,7 +4757,7 @@
         <v>418406</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>413571</v>
+        <v>414184</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>419463</v>
@@ -4766,7 +4766,7 @@
         <v>0.9974806079262606</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9859526320475078</v>
+        <v>0.987415493448049</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -4778,7 +4778,7 @@
         <v>394865</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>390854</v>
+        <v>392147</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>395755</v>
@@ -4787,7 +4787,7 @@
         <v>0.9977508506028726</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9876152197122924</v>
+        <v>0.9908822896451653</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -4799,7 +4799,7 @@
         <v>813271</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>806798</v>
+        <v>808982</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>815218</v>
@@ -4808,7 +4808,7 @@
         <v>0.9976117996947076</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9896719834145868</v>
+        <v>0.9923500466356263</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -4903,19 +4903,19 @@
         <v>12463</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6343</v>
+        <v>6239</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22604</v>
+        <v>21348</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02110598122525077</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01074201724182532</v>
+        <v>0.01056623610296973</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03827894250598091</v>
+        <v>0.03615273932099602</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -4924,19 +4924,19 @@
         <v>8659</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3949</v>
+        <v>3942</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>15298</v>
+        <v>15969</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01536462983009891</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.007007725787664458</v>
+        <v>0.0069954146986765</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02714588406423137</v>
+        <v>0.02833678860578774</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>20</v>
@@ -4945,19 +4945,19 @@
         <v>21122</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>12714</v>
+        <v>12869</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>32747</v>
+        <v>31164</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01830235009734792</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01101683772251435</v>
+        <v>0.01115143823142734</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02837610853828543</v>
+        <v>0.02700434827515937</v>
       </c>
     </row>
     <row r="8">
@@ -4974,19 +4974,19 @@
         <v>578033</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>567892</v>
+        <v>569148</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>584153</v>
+        <v>584257</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9788940187747492</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9617210574940177</v>
+        <v>0.9638472606790036</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9892579827581747</v>
+        <v>0.9894337638970302</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>570</v>
@@ -4995,19 +4995,19 @@
         <v>554885</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>548246</v>
+        <v>547575</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>559595</v>
+        <v>559602</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9846353701699011</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9728541159357686</v>
+        <v>0.9716632113942122</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9929922742123355</v>
+        <v>0.9930045853013235</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1126</v>
@@ -5016,19 +5016,19 @@
         <v>1132918</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1121293</v>
+        <v>1122876</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1141326</v>
+        <v>1141171</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9816976499026521</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9716238914617135</v>
+        <v>0.9729956517248403</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9889831622774847</v>
+        <v>0.9888485617685726</v>
       </c>
     </row>
     <row r="9">
@@ -5120,19 +5120,19 @@
         <v>30511</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>20292</v>
+        <v>21284</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>43479</v>
+        <v>44031</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04560058084652344</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03032742566856953</v>
+        <v>0.03180983609534235</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06498164001024313</v>
+        <v>0.0658070535890916</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -5141,19 +5141,19 @@
         <v>17826</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11015</v>
+        <v>11196</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27097</v>
+        <v>27310</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02695300459257007</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0166550076785244</v>
+        <v>0.01692844206760607</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04096945210208373</v>
+        <v>0.04129227266090998</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>46</v>
@@ -5162,19 +5162,19 @@
         <v>48338</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>36473</v>
+        <v>35226</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>63312</v>
+        <v>62340</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03633082590955265</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02741316899260778</v>
+        <v>0.02647598041261763</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04758602884857831</v>
+        <v>0.04685506307847515</v>
       </c>
     </row>
     <row r="11">
@@ -5191,19 +5191,19 @@
         <v>638586</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>625618</v>
+        <v>625066</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>648805</v>
+        <v>647813</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9543994191534766</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9350183599897567</v>
+        <v>0.9341929464109092</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9696725743314305</v>
+        <v>0.9681901639046577</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>646</v>
@@ -5212,19 +5212,19 @@
         <v>643560</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>634289</v>
+        <v>634076</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>650371</v>
+        <v>650190</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9730469954074299</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9590305478979162</v>
+        <v>0.9587077273390899</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9833449923214755</v>
+        <v>0.983071557932394</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1257</v>
@@ -5233,19 +5233,19 @@
         <v>1282145</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1267171</v>
+        <v>1268143</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1294010</v>
+        <v>1295257</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9636691740904474</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9524139711514208</v>
+        <v>0.9531449369215247</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9725868310073917</v>
+        <v>0.9735240195873822</v>
       </c>
     </row>
     <row r="12">
@@ -5337,19 +5337,19 @@
         <v>64925</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>49333</v>
+        <v>51108</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>81861</v>
+        <v>83707</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1004952013363957</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0763618674324725</v>
+        <v>0.07910934738184087</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1267104380388978</v>
+        <v>0.129567511136121</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>66</v>
@@ -5358,19 +5358,19 @@
         <v>69059</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>54617</v>
+        <v>52011</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>86142</v>
+        <v>85410</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1063961919142842</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08414624995853261</v>
+        <v>0.08013147544806674</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1327153729408541</v>
+        <v>0.1315875191498509</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>126</v>
@@ -5379,19 +5379,19 @@
         <v>133984</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>112988</v>
+        <v>112707</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>157043</v>
+        <v>157204</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1034525963368688</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08724126240829308</v>
+        <v>0.08702369917540699</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1212566681470193</v>
+        <v>0.1213816705375344</v>
       </c>
     </row>
     <row r="14">
@@ -5408,19 +5408,19 @@
         <v>581123</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>564187</v>
+        <v>562341</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>596715</v>
+        <v>594940</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8995047986636043</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8732895619611015</v>
+        <v>0.8704324888638789</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.923638132567527</v>
+        <v>0.9208906526181591</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>536</v>
@@ -5429,19 +5429,19 @@
         <v>580018</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>562935</v>
+        <v>563667</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>594460</v>
+        <v>597066</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8936038080857158</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8672846270591457</v>
+        <v>0.8684124808501491</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9158537500414673</v>
+        <v>0.9198685245519332</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1058</v>
@@ -5450,19 +5450,19 @@
         <v>1161141</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1138082</v>
+        <v>1137921</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1182137</v>
+        <v>1182418</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8965474036631312</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8787433318529807</v>
+        <v>0.8786183294624657</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9127587375917069</v>
+        <v>0.9129763008245929</v>
       </c>
     </row>
     <row r="15">
@@ -5554,19 +5554,19 @@
         <v>94827</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>76718</v>
+        <v>78711</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>114388</v>
+        <v>115329</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1984158920402836</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1605257868315096</v>
+        <v>0.1646946919266371</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2393459480094716</v>
+        <v>0.2413159172574448</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>103</v>
@@ -5575,19 +5575,19 @@
         <v>119463</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>100392</v>
+        <v>101244</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>142635</v>
+        <v>140504</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2404403078016054</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2020582938515363</v>
+        <v>0.2037726533151142</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.287079231141958</v>
+        <v>0.2827900537664851</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>186</v>
@@ -5596,19 +5596,19 @@
         <v>214289</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>186333</v>
+        <v>188971</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>241289</v>
+        <v>244465</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2198361791529035</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1911568337587325</v>
+        <v>0.1938623568023319</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2475354115776404</v>
+        <v>0.2507935347592818</v>
       </c>
     </row>
     <row r="17">
@@ -5625,19 +5625,19 @@
         <v>383091</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>363530</v>
+        <v>362589</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>401200</v>
+        <v>399207</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8015841079597164</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7606540519905296</v>
+        <v>0.7586840827425553</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8394742131684905</v>
+        <v>0.835305308073363</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>330</v>
@@ -5646,19 +5646,19 @@
         <v>377386</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>354214</v>
+        <v>356345</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>396457</v>
+        <v>395605</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7595596921983946</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7129207688580419</v>
+        <v>0.7172099462335149</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7979417061484637</v>
+        <v>0.7962273466848858</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>671</v>
@@ -5667,19 +5667,19 @@
         <v>760478</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>733478</v>
+        <v>730302</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>788434</v>
+        <v>785796</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7801638208470966</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7524645884223592</v>
+        <v>0.7492064652407182</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8088431662412674</v>
+        <v>0.8061376431976681</v>
       </c>
     </row>
     <row r="18">
@@ -5771,19 +5771,19 @@
         <v>105384</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>89441</v>
+        <v>89470</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>122766</v>
+        <v>122459</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3152087478566201</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2675229544814774</v>
+        <v>0.2676102695415735</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3672000993183062</v>
+        <v>0.3662831667460022</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>111</v>
@@ -5792,19 +5792,19 @@
         <v>117394</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>99154</v>
+        <v>99479</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>135915</v>
+        <v>135524</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3107621247008983</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2624787104946145</v>
+        <v>0.2633379974988583</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.359790031068692</v>
+        <v>0.3587552132287986</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>215</v>
@@ -5813,19 +5813,19 @@
         <v>222778</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>201382</v>
+        <v>199671</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>247707</v>
+        <v>247526</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3128498317836473</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2828035301758655</v>
+        <v>0.28040012939732</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.347857958972971</v>
+        <v>0.347603425855032</v>
       </c>
     </row>
     <row r="20">
@@ -5842,19 +5842,19 @@
         <v>228946</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>211564</v>
+        <v>211871</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>244889</v>
+        <v>244860</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.68479125214338</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6327999006816937</v>
+        <v>0.6337168332539979</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7324770455185223</v>
+        <v>0.7323897304584265</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>243</v>
@@ -5863,19 +5863,19 @@
         <v>260368</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>241847</v>
+        <v>242238</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>278608</v>
+        <v>278283</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6892378752991017</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.640209968931308</v>
+        <v>0.6412447867712014</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7375212895053853</v>
+        <v>0.7366620025011416</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>464</v>
@@ -5884,19 +5884,19 @@
         <v>489314</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>464385</v>
+        <v>464566</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>510710</v>
+        <v>512421</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6871501682163527</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.652142041027029</v>
+        <v>0.6523965741449679</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7171964698241344</v>
+        <v>0.71959987060268</v>
       </c>
     </row>
     <row r="21">
@@ -5988,19 +5988,19 @@
         <v>79632</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>67547</v>
+        <v>67898</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>94714</v>
+        <v>93517</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3098559987147957</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2628297269011272</v>
+        <v>0.2641975315033151</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3685408556416726</v>
+        <v>0.3638824118954944</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>102</v>
@@ -6009,19 +6009,19 @@
         <v>136047</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>114999</v>
+        <v>115690</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>157942</v>
+        <v>159530</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3399727128289535</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.287377197207263</v>
+        <v>0.2891027948879603</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3946875096082079</v>
+        <v>0.3986573243752136</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>197</v>
@@ -6030,19 +6030,19 @@
         <v>215679</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>188937</v>
+        <v>190994</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>239174</v>
+        <v>241323</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3281949830888004</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2875023934563434</v>
+        <v>0.2906326488915539</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3639472759685478</v>
+        <v>0.3672177545188879</v>
       </c>
     </row>
     <row r="23">
@@ -6059,19 +6059,19 @@
         <v>177366</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>162284</v>
+        <v>163481</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>189451</v>
+        <v>189100</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6901440012852043</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6314591443583274</v>
+        <v>0.6361175881045052</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7371702730988726</v>
+        <v>0.7358024684966848</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>199</v>
@@ -6080,19 +6080,19 @@
         <v>264122</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>242227</v>
+        <v>240639</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>285170</v>
+        <v>284479</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6600272871710464</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6053124903917921</v>
+        <v>0.6013426756247865</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7126228027927369</v>
+        <v>0.7108972051120399</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>406</v>
@@ -6101,19 +6101,19 @@
         <v>441488</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>417993</v>
+        <v>415844</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>468230</v>
+        <v>466173</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6718050169111996</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6360527240314523</v>
+        <v>0.6327822454811126</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7124976065436566</v>
+        <v>0.7093673511084463</v>
       </c>
     </row>
     <row r="24">
@@ -6205,19 +6205,19 @@
         <v>388798</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>354014</v>
+        <v>352164</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>427114</v>
+        <v>429620</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1145427989490394</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1042952244932123</v>
+        <v>0.1037499509895467</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1258309598218785</v>
+        <v>0.1265692479158909</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>411</v>
@@ -6226,19 +6226,19 @@
         <v>469338</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>424902</v>
+        <v>425625</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>510501</v>
+        <v>513377</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1324113550473348</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1198751428609108</v>
+        <v>0.1200789074993194</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1440244981741692</v>
+        <v>0.144835958759313</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>792</v>
@@ -6247,19 +6247,19 @@
         <v>858136</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>804897</v>
+        <v>806113</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>914751</v>
+        <v>909245</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1236704585853208</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.115997860905444</v>
+        <v>0.1161731739916131</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1318295483419056</v>
+        <v>0.13103600363399</v>
       </c>
     </row>
     <row r="26">
@@ -6276,19 +6276,19 @@
         <v>3005552</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2967236</v>
+        <v>2964730</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3040336</v>
+        <v>3042186</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8854572010509606</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8741690401781209</v>
+        <v>0.8734307520841088</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8957047755067875</v>
+        <v>0.8962500490104534</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2927</v>
@@ -6297,19 +6297,19 @@
         <v>3075204</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3034041</v>
+        <v>3031165</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3119640</v>
+        <v>3118917</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8675886449526653</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8559755018258307</v>
+        <v>0.8551640412406869</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8801248571390892</v>
+        <v>0.8799210925006806</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5777</v>
@@ -6318,19 +6318,19 @@
         <v>6080756</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6024141</v>
+        <v>6029647</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6133995</v>
+        <v>6132779</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8763295414146792</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8681704516580944</v>
+        <v>0.8689639963660094</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8840021390945559</v>
+        <v>0.8838268260083868</v>
       </c>
     </row>
     <row r="27">
@@ -6678,19 +6678,19 @@
         <v>5361</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1122</v>
+        <v>1092</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16204</v>
+        <v>15244</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01478935527912366</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003095653767611739</v>
+        <v>0.00301349720618008</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04469990942700113</v>
+        <v>0.0420497844046072</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -6699,19 +6699,19 @@
         <v>5361</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1128</v>
+        <v>1091</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14951</v>
+        <v>14529</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.006959993935966632</v>
+        <v>0.00695999393596663</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001464318755980779</v>
+        <v>0.001416447922436089</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01940925119637596</v>
+        <v>0.01886181522956482</v>
       </c>
     </row>
     <row r="5">
@@ -6741,19 +6741,19 @@
         <v>357151</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>346308</v>
+        <v>347268</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>361390</v>
+        <v>361420</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9852106447208763</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9553000905729986</v>
+        <v>0.9579502155953927</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9969043462323882</v>
+        <v>0.99698650279382</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>376</v>
@@ -6762,19 +6762,19 @@
         <v>764944</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>755354</v>
+        <v>755776</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>769177</v>
+        <v>769214</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9930400060640335</v>
+        <v>0.9930400060640333</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9805907488036241</v>
+        <v>0.9811381847704351</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9985356812440193</v>
+        <v>0.9985835520775638</v>
       </c>
     </row>
     <row r="6">
@@ -6866,19 +6866,19 @@
         <v>5931</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1595</v>
+        <v>1640</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14114</v>
+        <v>14564</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01243685076083838</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003343617653796053</v>
+        <v>0.003438084066956617</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02959653520160454</v>
+        <v>0.03053853364634713</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -6887,19 +6887,19 @@
         <v>10563</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5670</v>
+        <v>5650</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>18245</v>
+        <v>17802</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02108126811517756</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0113153225614874</v>
+        <v>0.01127537400593447</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03641172406018724</v>
+        <v>0.03552675354477675</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>15</v>
@@ -6908,19 +6908,19 @@
         <v>16494</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9496</v>
+        <v>8998</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>26675</v>
+        <v>27773</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01686598099901223</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.009710122485815358</v>
+        <v>0.009201103412587234</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02727630357931782</v>
+        <v>0.02839873165511832</v>
       </c>
     </row>
     <row r="8">
@@ -6937,19 +6937,19 @@
         <v>470959</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>462776</v>
+        <v>462326</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>475295</v>
+        <v>475250</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9875631492391616</v>
+        <v>0.9875631492391617</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9704034647983957</v>
+        <v>0.9694614663536528</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9966563823462039</v>
+        <v>0.9965619159330434</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>449</v>
@@ -6958,19 +6958,19 @@
         <v>490520</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>482838</v>
+        <v>483281</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>495413</v>
+        <v>495433</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9789187318848225</v>
+        <v>0.9789187318848223</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9635882759398128</v>
+        <v>0.9644732464552236</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9886846774385126</v>
+        <v>0.9887246259940656</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>747</v>
@@ -6979,19 +6979,19 @@
         <v>961479</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>951298</v>
+        <v>950200</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>968477</v>
+        <v>968975</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9831340190009877</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9727236964206822</v>
+        <v>0.9716012683448819</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9902898775141846</v>
+        <v>0.9907988965874127</v>
       </c>
     </row>
     <row r="9">
@@ -7083,19 +7083,19 @@
         <v>31453</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21287</v>
+        <v>20869</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>44965</v>
+        <v>44986</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05086951933782686</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03442843202399293</v>
+        <v>0.03375194229451527</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07272342719820209</v>
+        <v>0.07275730656726495</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -7104,19 +7104,19 @@
         <v>11360</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6791</v>
+        <v>6753</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17778</v>
+        <v>17746</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.01827808629931771</v>
+        <v>0.01827808629931772</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01092624458515304</v>
+        <v>0.01086593452839887</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.028604778195163</v>
+        <v>0.02855430555565464</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>44</v>
@@ -7125,19 +7125,19 @@
         <v>42812</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>31718</v>
+        <v>31214</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>57702</v>
+        <v>55535</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.03453192274214489</v>
+        <v>0.03453192274214491</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0255836684176186</v>
+        <v>0.02517687246150075</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04654203599595259</v>
+        <v>0.0447935559405955</v>
       </c>
     </row>
     <row r="11">
@@ -7154,19 +7154,19 @@
         <v>586849</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>573337</v>
+        <v>573316</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>597015</v>
+        <v>597433</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9491304806621732</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9272765728017979</v>
+        <v>0.9272426934327352</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9655715679760071</v>
+        <v>0.9662480577054849</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>828</v>
@@ -7175,19 +7175,19 @@
         <v>610128</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>603710</v>
+        <v>603742</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>614697</v>
+        <v>614735</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9817219137006822</v>
+        <v>0.9817219137006824</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9713952218048372</v>
+        <v>0.9714456944443456</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9890737554148469</v>
+        <v>0.9891340654716014</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1345</v>
@@ -7196,19 +7196,19 @@
         <v>1196978</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1182088</v>
+        <v>1184255</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1208072</v>
+        <v>1208576</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9654680772578551</v>
+        <v>0.9654680772578553</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9534579640040473</v>
+        <v>0.9552064440594045</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9744163315823814</v>
+        <v>0.9748231275384994</v>
       </c>
     </row>
     <row r="12">
@@ -7300,19 +7300,19 @@
         <v>96362</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>79151</v>
+        <v>80508</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>115147</v>
+        <v>118340</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1375384034200308</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1129735673006061</v>
+        <v>0.1149106554696725</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1643511673902178</v>
+        <v>0.168908681285034</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>113</v>
@@ -7321,19 +7321,19 @@
         <v>73722</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>61129</v>
+        <v>61271</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>87646</v>
+        <v>87011</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1002887273675586</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08315718262556104</v>
+        <v>0.08335070956997281</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.119230374902645</v>
+        <v>0.1183669041273417</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>202</v>
@@ -7342,19 +7342,19 @@
         <v>170084</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>148882</v>
+        <v>146985</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>194627</v>
+        <v>195412</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1184662877263675</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1036988775612295</v>
+        <v>0.1023778845028328</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1355610728934057</v>
+        <v>0.1361083116829175</v>
       </c>
     </row>
     <row r="14">
@@ -7371,19 +7371,19 @@
         <v>604255</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>585470</v>
+        <v>582277</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>621466</v>
+        <v>620109</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8624615965799693</v>
+        <v>0.8624615965799692</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8356488326097823</v>
+        <v>0.8310913187149659</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8870264326993943</v>
+        <v>0.8850893445303273</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1025</v>
@@ -7392,19 +7392,19 @@
         <v>661374</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>647450</v>
+        <v>648085</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>673967</v>
+        <v>673825</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8997112726324413</v>
+        <v>0.8997112726324414</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.880769625097355</v>
+        <v>0.8816330958726583</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9168428173744391</v>
+        <v>0.9166492904300267</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1601</v>
@@ -7413,19 +7413,19 @@
         <v>1265629</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1241086</v>
+        <v>1240301</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1286831</v>
+        <v>1288728</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8815337122736325</v>
+        <v>0.8815337122736326</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8644389271065942</v>
+        <v>0.8638916883170825</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8963011224387706</v>
+        <v>0.8976221154971671</v>
       </c>
     </row>
     <row r="15">
@@ -7517,19 +7517,19 @@
         <v>139397</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>120695</v>
+        <v>121918</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>158751</v>
+        <v>160573</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2295119076290302</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.198720328158352</v>
+        <v>0.2007346097434117</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2613786348608719</v>
+        <v>0.2643788411318356</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>253</v>
@@ -7538,19 +7538,19 @@
         <v>151637</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>134710</v>
+        <v>135536</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>168676</v>
+        <v>169129</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2501892187211822</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2222615336228563</v>
+        <v>0.2236227910265264</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2783022692726646</v>
+        <v>0.279049817118477</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>412</v>
@@ -7559,19 +7559,19 @@
         <v>291034</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>265947</v>
+        <v>265832</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>317346</v>
+        <v>318365</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2398397382225934</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.219166197453482</v>
+        <v>0.2190707619741369</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2615238557260108</v>
+        <v>0.2623635207440582</v>
       </c>
     </row>
     <row r="17">
@@ -7588,19 +7588,19 @@
         <v>467964</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>448610</v>
+        <v>446788</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>486666</v>
+        <v>485443</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7704880923709698</v>
+        <v>0.7704880923709699</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7386213651391282</v>
+        <v>0.7356211588681644</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8012796718416478</v>
+        <v>0.7992653902565882</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>745</v>
@@ -7609,19 +7609,19 @@
         <v>454453</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>437414</v>
+        <v>436961</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>471380</v>
+        <v>470554</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7498107812788176</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7216977307273355</v>
+        <v>0.7209501828815228</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7777384663771437</v>
+        <v>0.7763772089734737</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1247</v>
@@ -7630,19 +7630,19 @@
         <v>922417</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>896105</v>
+        <v>895086</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>947504</v>
+        <v>947619</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7601602617774065</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7384761442739892</v>
+        <v>0.7376364792559418</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.780833802546518</v>
+        <v>0.7809292380258628</v>
       </c>
     </row>
     <row r="18">
@@ -7734,19 +7734,19 @@
         <v>120897</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>105269</v>
+        <v>104810</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>135740</v>
+        <v>136582</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2993722820653035</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2606718625208317</v>
+        <v>0.2595366964881023</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3361269553094351</v>
+        <v>0.338210526268644</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>293</v>
@@ -7755,19 +7755,19 @@
         <v>154635</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>140433</v>
+        <v>140905</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>169522</v>
+        <v>170205</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.3530901915080787</v>
+        <v>0.3530901915080786</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3206615231045408</v>
+        <v>0.3217389126895089</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3870833627611184</v>
+        <v>0.3886423947153459</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>468</v>
@@ -7776,19 +7776,19 @@
         <v>275532</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>255310</v>
+        <v>255595</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>297138</v>
+        <v>298333</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3273196238843377</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3032960511085082</v>
+        <v>0.3036352248857205</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3529865136112498</v>
+        <v>0.3544060749003337</v>
       </c>
     </row>
     <row r="20">
@@ -7805,19 +7805,19 @@
         <v>282939</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>268096</v>
+        <v>267254</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>298567</v>
+        <v>299026</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7006277179346966</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6638730446905649</v>
+        <v>0.6617894737313561</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7393281374791683</v>
+        <v>0.7404633035118975</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>532</v>
@@ -7826,19 +7826,19 @@
         <v>283312</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>268425</v>
+        <v>267742</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>297514</v>
+        <v>297042</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.6469098084919214</v>
+        <v>0.6469098084919213</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.612916637238882</v>
+        <v>0.6113576052846542</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6793384768954591</v>
+        <v>0.6782610873104912</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>923</v>
@@ -7847,19 +7847,19 @@
         <v>566252</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>544646</v>
+        <v>543451</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>586474</v>
+        <v>586189</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6726803761156623</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6470134863887496</v>
+        <v>0.6455939250996664</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6967039488914919</v>
+        <v>0.6963647751142795</v>
       </c>
     </row>
     <row r="21">
@@ -7951,19 +7951,19 @@
         <v>112566</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>98584</v>
+        <v>99674</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>125588</v>
+        <v>126177</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3639894267697894</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3187765961734605</v>
+        <v>0.3223017264514228</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.406097245754</v>
+        <v>0.4080010611858042</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>383</v>
@@ -7972,19 +7972,19 @@
         <v>192206</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>175092</v>
+        <v>176915</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>207919</v>
+        <v>208297</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.416151561892657</v>
+        <v>0.4161515618926569</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3790975349632942</v>
+        <v>0.3830447743353533</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4501713066179726</v>
+        <v>0.4509906251546812</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>557</v>
@@ -7993,19 +7993,19 @@
         <v>304773</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>283164</v>
+        <v>283417</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>325333</v>
+        <v>325962</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3952320660553341</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3672095097980305</v>
+        <v>0.3675376830549318</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4218951344460123</v>
+        <v>0.422710202130873</v>
       </c>
     </row>
     <row r="23">
@@ -8022,19 +8022,19 @@
         <v>196691</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>183669</v>
+        <v>183080</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>210673</v>
+        <v>209583</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.6360105732302105</v>
+        <v>0.6360105732302106</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5939027542459999</v>
+        <v>0.5919989388141959</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6812234038265393</v>
+        <v>0.6776982735485771</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>493</v>
@@ -8043,19 +8043,19 @@
         <v>269660</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>253947</v>
+        <v>253569</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>286774</v>
+        <v>284951</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.5838484381073432</v>
+        <v>0.583848438107343</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5498286933820273</v>
+        <v>0.549009374845319</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.620902465036706</v>
+        <v>0.6169552256646466</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>776</v>
@@ -8064,19 +8064,19 @@
         <v>466350</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>445790</v>
+        <v>445161</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>487959</v>
+        <v>487706</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.604767933944666</v>
+        <v>0.6047679339446659</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5781048655539879</v>
+        <v>0.5772897978691269</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6327904902019695</v>
+        <v>0.6324623169450683</v>
       </c>
     </row>
     <row r="24">
@@ -8168,19 +8168,19 @@
         <v>506606</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>469752</v>
+        <v>468947</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>547321</v>
+        <v>547029</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.1437564016181793</v>
+        <v>0.1437564016181794</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.133298603685528</v>
+        <v>0.1330701104470726</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1553100516324988</v>
+        <v>0.1552271811126218</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1073</v>
@@ -8189,19 +8189,19 @@
         <v>599485</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>564071</v>
+        <v>562497</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>631579</v>
+        <v>633626</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1608887035586158</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1513843271827037</v>
+        <v>0.1509620813084449</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1695020821135091</v>
+        <v>0.1700516201816058</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1701</v>
@@ -8210,19 +8210,19 @@
         <v>1106090</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1048512</v>
+        <v>1053313</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1158014</v>
+        <v>1160081</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1525612497852638</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1446196008605768</v>
+        <v>0.1452817143800274</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1597229421799662</v>
+        <v>0.160008040615473</v>
       </c>
     </row>
     <row r="26">
@@ -8239,19 +8239,19 @@
         <v>3017451</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2976736</v>
+        <v>2977028</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3054305</v>
+        <v>3055110</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8562435983818207</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8446899483675013</v>
+        <v>0.8447728188873781</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.866701396314472</v>
+        <v>0.8669298895529272</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4276</v>
@@ -8260,19 +8260,19 @@
         <v>3126598</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3094504</v>
+        <v>3092457</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3162012</v>
+        <v>3163586</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8391112964413843</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8304979178864909</v>
+        <v>0.8299483798183944</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8486156728172961</v>
+        <v>0.8490379186915548</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7015</v>
@@ -8281,19 +8281,19 @@
         <v>6144050</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6092126</v>
+        <v>6090059</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6201628</v>
+        <v>6196827</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8474387502147362</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8402770578200335</v>
+        <v>0.8399919593845272</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8553803991394231</v>
+        <v>0.8547182856199728</v>
       </c>
     </row>
     <row r="27">
